--- a/xlsx-template/student.xlsx
+++ b/xlsx-template/student.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vyvu\comartek-training\student-manager\xlsx-template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vyvu\comartek-training\student-manager-mongo\xlsx-template\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,40 +41,40 @@
     <t>email</t>
   </si>
   <si>
+    <t>${table:result.name}</t>
+  </si>
+  <si>
+    <t>${table:result.dob}</t>
+  </si>
+  <si>
+    <t>${table:result.gender}</t>
+  </si>
+  <si>
+    <t>${table:result.email}</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>scoreAvg</t>
+  </si>
+  <si>
+    <t>${table:result.scoreAvg}</t>
+  </si>
+  <si>
+    <t>${table:result.class.name}</t>
+  </si>
+  <si>
+    <t>classId</t>
+  </si>
+  <si>
+    <t>Danh sách học sinh có điểm ${title}</t>
+  </si>
+  <si>
     <t>${table:result.id}</t>
   </si>
   <si>
-    <t>${table:result.name}</t>
-  </si>
-  <si>
-    <t>${table:result.dob}</t>
-  </si>
-  <si>
-    <t>${table:result.gender}</t>
-  </si>
-  <si>
-    <t>${table:result.email}</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
     <t>${table:result.class.id}</t>
-  </si>
-  <si>
-    <t>scoreAvg</t>
-  </si>
-  <si>
-    <t>${table:result.scoreAvg}</t>
-  </si>
-  <si>
-    <t>${table:result.class.name}</t>
-  </si>
-  <si>
-    <t>classId</t>
-  </si>
-  <si>
-    <t>Danh sách học sinh có điểm ${title}</t>
   </si>
 </sst>
 </file>
@@ -130,9 +130,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -140,6 +137,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,7 +425,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,67 +441,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="A1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
